--- a/timesheet_2.xlsx
+++ b/timesheet_2.xlsx
@@ -554,7 +554,7 @@
   <dimension ref="A2:O19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -743,15 +743,15 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G14" s="21" t="n">
         <f aca="false">SUM(D14:D16)*60+SUM(F14:F16)</f>
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="H14" s="22" t="str">
         <f aca="false">CONCATENATE(QUOTIENT(G14,60),"h",IF(MOD(G14,60)&lt;10,"0",""),MOD(G14,60),"m")</f>
-        <v>6h30m</v>
+        <v>7h35m</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,7 +764,9 @@
         <v>6</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="20" t="n">
+        <v>45</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="22"/>
     </row>
@@ -779,7 +781,7 @@
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="22"/>
@@ -801,11 +803,11 @@
       </c>
       <c r="G18" s="30" t="n">
         <f aca="false">SUM(G9:G16)</f>
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="H18" s="31" t="str">
         <f aca="false">CONCATENATE(QUOTIENT(G18,60),"h",IF(MOD(G18,60)&lt;10,"0",""),MOD(G18,60),"m")</f>
-        <v>6h30m</v>
+        <v>7h35m</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/timesheet_2.xlsx
+++ b/timesheet_2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18722"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihail\Dropbox\CG\CG\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD86863E-1E6C-48F4-B14E-7F979788F581}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="171026" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -106,7 +107,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="dd&quot;, &quot;hh:mm"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -289,24 +290,6 @@
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,6 +369,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,7 +474,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -774,16 +775,16 @@
   </sheetPr>
   <dimension ref="A2:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="73.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" hidden="1" customWidth="1"/>
@@ -791,254 +792,254 @@
     <col min="9" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:15" ht="26.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:15" ht="16.5" customHeight="1">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:15" ht="16.5" customHeight="1">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="5" spans="1:15" ht="6" customHeight="1"/>
+    <row r="6" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18" t="s">
+    <row r="7" spans="1:15" ht="8.25" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" ht="3" customHeight="1">
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1">
+      <c r="A9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="17">
         <v>0</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
         <v>30</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="35">
         <f>SUM(D9:D11)*60+SUM(F9:F11)</f>
         <v>120</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="36" t="str">
         <f>CONCATENATE(QUOTIENT(G9,60),"h",IF(MOD(G9,60)&lt;10,"0",""),MOD(G9,60),"m")</f>
         <v>2h00m</v>
       </c>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="22" t="s">
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="23">
+      <c r="C10" s="34"/>
+      <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17">
         <v>0</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="22" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="23">
+      <c r="C11" s="34"/>
+      <c r="D11" s="17">
         <v>0</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17">
         <v>30</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="22" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="17">
+        <v>4</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17">
         <v>0</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23">
+      <c r="G12" s="35">
+        <f>SUM(D12:D13)*60+SUM(F12:F13)</f>
+        <v>330</v>
+      </c>
+      <c r="H12" s="36" t="str">
+        <f>CONCATENATE(QUOTIENT(G12,60),"h",IF(MOD(G12,60)&lt;10,"0",""),MOD(G12,60),"m")</f>
+        <v>5h30m</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17">
+        <v>30</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="G12" s="3">
-        <f>SUM(D12:D13)*60+SUM(F12:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="str">
-        <f>CONCATENATE(QUOTIENT(G12,60),"h",IF(MOD(G12,60)&lt;10,"0",""),MOD(G12,60),"m")</f>
-        <v>0h00m</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17">
         <v>20</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="35">
         <f>SUM(D14:D16)*60+SUM(F14:F16)</f>
         <v>455</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="H14" s="36" t="str">
         <f>CONCATENATE(QUOTIENT(G14,60),"h",IF(MOD(G14,60)&lt;10,"0",""),MOD(G14,60),"m")</f>
         <v>7h35m</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="1:15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="23">
+      <c r="C15" s="37"/>
+      <c r="D15" s="17">
         <v>6</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17">
         <v>45</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="22" t="s">
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="23">
+      <c r="C16" s="37"/>
+      <c r="D16" s="17">
         <v>0</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17">
         <v>30</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-    </row>
-    <row r="17" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="24"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29" t="s">
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="2:8" ht="4.5" customHeight="1">
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="24">
         <f>SUM(G9:G16)</f>
-        <v>575</v>
-      </c>
-      <c r="H18" s="31" t="str">
+        <v>905</v>
+      </c>
+      <c r="H18" s="25" t="str">
         <f>CONCATENATE(QUOTIENT(G18,60),"h",IF(MOD(G18,60)&lt;10,"0",""),MOD(G18,60),"m")</f>
-        <v>9h35m</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="37" t="s">
+        <v>15h05m</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="11.25" customHeight="1">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="31" t="s">
         <v>23</v>
       </c>
     </row>
